--- a/docs/ValueSet-ValueSet-birth-and-fetal-death-financial-class.xlsx
+++ b/docs/ValueSet-ValueSet-birth-and-fetal-death-financial-class.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Local BFDR Codes" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Source of Paymen" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ValueSet - Birth and Fetal Death Financial Class</t>
+    <t>Birth and Fetal Death Financial Class</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This valueset contains codes to represent birth and fetal death financial class. This valueset is based on [PHVS_BirthAndFetalDeathFinancialClass_NCHS](https://phinvads.cdc.gov/vads/ViewValueSet.action?id=D20CD804-8487-E311-AE2A-0017A477041A).</t>
+    <t>This valueset contains codes to represent birth and fetal death financial class. This valueset is based on 
+[PHVS_BirthAndFetalDeathFinancialClass_NCHS](https://phinvads.cdc.gov/vads/ViewValueSet.action?id=D20CD804-8487-E311-AE2A-0017A477041A). using codes from
+the [Source of Payment Typology](https://terminology.hl7.org/3.0.0/CodeSystem-SOPT.html) codesystem.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -93,9 +95,6 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>include appropriate copyright ruleset</t>
-  </si>
-  <si>
     <t>Immutable</t>
   </si>
   <si>
@@ -105,49 +104,49 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>finclass_indianhealth</t>
+    <t>33</t>
   </si>
   <si>
     <t>Indian Health Service or Tribe</t>
   </si>
   <si>
-    <t>finclass_medicaid</t>
+    <t>2</t>
   </si>
   <si>
     <t>MEDICAID</t>
   </si>
   <si>
-    <t>finclass_nosource</t>
+    <t>99</t>
   </si>
   <si>
     <t>No Typology Code available for payment source</t>
   </si>
   <si>
-    <t>finclass_othergov</t>
+    <t>38</t>
   </si>
   <si>
     <t>Other Government (Federal, State, Local not specified)</t>
   </si>
   <si>
-    <t>finclass_privateinsurance</t>
+    <t>5</t>
   </si>
   <si>
     <t>PRIVATE HEALTH INSURANCE</t>
   </si>
   <si>
-    <t>finclass_selfpay</t>
+    <t>81</t>
   </si>
   <si>
     <t>Self-pay</t>
   </si>
   <si>
-    <t>finclass_tricare</t>
+    <t>311</t>
   </si>
   <si>
     <t>TRICARE (CHAMPUS)</t>
   </si>
   <si>
-    <t>finclass_unknown</t>
+    <t>9999</t>
   </si>
   <si>
     <t>Unavailable / Unknown</t>
@@ -159,7 +158,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/bfdr/CodeSystem/CodeSystem-local-bfdr-codes</t>
+    <t>https://nahdo.org/sopt</t>
   </si>
 </sst>
 </file>
@@ -409,16 +408,14 @@
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -440,7 +437,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -448,82 +445,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-ValueSet-birth-and-fetal-death-financial-class.xlsx
+++ b/docs/ValueSet-ValueSet-birth-and-fetal-death-financial-class.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ValueSet-birth-and-fetal-death-financial-class.xlsx
+++ b/docs/ValueSet-ValueSet-birth-and-fetal-death-financial-class.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
